--- a/2019-07_2019-09_plan.xlsx
+++ b/2019-07_2019-09_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zexixing/Library/Mobile Documents/com~apple~CloudDocs/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zexixing/Library/Mobile Documents/com~apple~CloudDocs/Files/Daily-Improvements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F20917C1-D0A0-E04E-8BA9-1E178EDDD61E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2805E45-79BA-AF42-8744-6FE2BB8C9442}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="16300" windowHeight="20540" xr2:uid="{92773BA5-47E8-D748-A9A8-03FB5F5B3A82}"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="20540" xr2:uid="{92773BA5-47E8-D748-A9A8-03FB5F5B3A82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>第一周 7/11-7/17</t>
   </si>
@@ -93,9 +93,6 @@
     <t>物理学概念</t>
   </si>
   <si>
-    <t>2h/d x 5 weeks ~ 70h</t>
-  </si>
-  <si>
     <t>3h/d x 37d ~ 111h</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>4hx2d</t>
   </si>
   <si>
-    <t>4h/d x 9 weeks ~ 248h</t>
-  </si>
-  <si>
     <t>7h/w x 9 weeks ~ 62h</t>
   </si>
   <si>
@@ -142,6 +136,15 @@
   </si>
   <si>
     <t>5h/d x 7d</t>
+  </si>
+  <si>
+    <t>4h/d x 5 weeks ~ 140h</t>
+  </si>
+  <si>
+    <t>3h/d x 4 weeks ~ 84h</t>
+  </si>
+  <si>
+    <t>1h/d x 9 weeks ~ 63h</t>
   </si>
 </sst>
 </file>
@@ -177,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,19 +203,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,415 +576,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF0D905-DE3F-C040-8224-49DE827D540E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="I13" sqref="I13:BL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="2.83203125" style="5"/>
+    <col min="1" max="1" width="10.83203125" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="2.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2" t="s">
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2" t="s">
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2" t="s">
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2" t="s">
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2" t="s">
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="8"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="8"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
@@ -965,45 +1019,45 @@
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
@@ -1035,273 +1089,273 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
-      <c r="BL8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="5"/>
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="5"/>
+      <c r="BK9" s="5"/>
+      <c r="BL9" s="5"/>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-      <c r="BL10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2"/>
-      <c r="BJ11" s="2"/>
-      <c r="BK11" s="2"/>
-      <c r="BL11" s="2"/>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1314,62 +1368,62 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1380,70 +1434,70 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="2"/>
-      <c r="BG13" s="2"/>
-      <c r="BH13" s="2"/>
-      <c r="BI13" s="2"/>
-      <c r="BJ13" s="2"/>
-      <c r="BK13" s="2"/>
-      <c r="BL13" s="2"/>
+      <c r="I13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1457,48 +1511,48 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
       <c r="BF14" s="1"/>
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
@@ -1510,7 +1564,7 @@
     <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1525,54 +1579,54 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
+      <c r="P15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
@@ -1622,14 +1676,14 @@
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
@@ -1688,16 +1742,16 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
-      <c r="AM17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
+      <c r="AM17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
@@ -1721,13 +1775,13 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1788,16 +1842,16 @@
     <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1866,13 +1920,13 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1915,13 +1969,13 @@
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
@@ -1932,15 +1986,15 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="I21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1983,15 +2037,15 @@
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
-      <c r="BF21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG21" s="2"/>
-      <c r="BH21" s="2"/>
-      <c r="BI21" s="2"/>
-      <c r="BJ21" s="2"/>
-      <c r="BK21" s="2"/>
-      <c r="BL21" s="2"/>
+      <c r="BF21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -2042,24 +2096,24 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2108,36 +2162,31 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
-      <c r="AU23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
-      <c r="BF23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
-      <c r="BI23" s="2"/>
-      <c r="BJ23" s="2"/>
-      <c r="BK23" s="2"/>
-      <c r="BL23" s="2"/>
+      <c r="AU23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="AM17:AT17"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="BF21:BL21"/>
+  <mergeCells count="25">
     <mergeCell ref="AU23:BE23"/>
     <mergeCell ref="BF23:BL23"/>
     <mergeCell ref="B7:AL7"/>
@@ -2146,19 +2195,25 @@
     <mergeCell ref="I13:BL13"/>
     <mergeCell ref="P15:AJ15"/>
     <mergeCell ref="AM15:BE15"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AX1"/>
-    <mergeCell ref="AY1:BE1"/>
-    <mergeCell ref="BF1:BL1"/>
-    <mergeCell ref="B3:AJ3"/>
-    <mergeCell ref="B5:BL5"/>
+    <mergeCell ref="AM17:AT17"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="BF21:BL21"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="W1:AC1"/>
     <mergeCell ref="AD1:AJ1"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AX1"/>
+    <mergeCell ref="AY1:BE1"/>
+    <mergeCell ref="BF1:BL1"/>
+    <mergeCell ref="B5:AJ5"/>
+    <mergeCell ref="AK5:BL5"/>
+    <mergeCell ref="B3:BL3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>